--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value602.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value602.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9130489159862318</v>
+        <v>1.075141191482544</v>
       </c>
       <c r="B1">
-        <v>0.9147122887836699</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>0.8462577627576741</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.9485730824039784</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.209587665297906</v>
+        <v>1.153566479682922</v>
       </c>
     </row>
   </sheetData>
